--- a/N_xi Fits/Results (rho=0.7)/N_xi Fitted Parameters (rho=0.7, End Decay at Noise Floor).xlsx
+++ b/N_xi Fits/Results (rho=0.7)/N_xi Fitted Parameters (rho=0.7, End Decay at Noise Floor).xlsx
@@ -508,25 +508,25 @@
         <v>1184.326171875</v>
       </c>
       <c r="E2" t="n">
-        <v>22.81989553923303</v>
+        <v>22.81989555484466</v>
       </c>
       <c r="F2" t="n">
-        <v>2.739452548449999</v>
+        <v>2.739452551887194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01926825234563977</v>
+        <v>0.01926825235882163</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002313089597701751</v>
+        <v>0.002313089600603988</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3129897331200402</v>
+        <v>0.3129897330189137</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01718410701906302</v>
+        <v>0.01718410700324795</v>
       </c>
       <c r="K2" t="n">
-        <v>2.972365714763406e-05</v>
+        <v>2.972365714763407e-05</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>1571.923828125</v>
       </c>
       <c r="E3" t="n">
-        <v>28.18604764675655</v>
+        <v>28.18604763752651</v>
       </c>
       <c r="F3" t="n">
-        <v>1.175269807605836</v>
+        <v>1.175269808248408</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01793092460490088</v>
+        <v>0.01793092459902907</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007476633323942321</v>
+        <v>0.0007476633328030129</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4762711958431699</v>
+        <v>0.4762711959619256</v>
       </c>
       <c r="J3" t="n">
-        <v>0.014365175166741</v>
+        <v>0.01436517518844836</v>
       </c>
       <c r="K3" t="n">
-        <v>7.069580935701461e-05</v>
+        <v>7.069580935701438e-05</v>
       </c>
     </row>
     <row r="4">
@@ -586,25 +586,25 @@
         <v>3213.83056640625</v>
       </c>
       <c r="E4" t="n">
-        <v>64.12367622828933</v>
+        <v>64.12367624004185</v>
       </c>
       <c r="F4" t="n">
-        <v>3.046154164486157</v>
+        <v>3.046154166862435</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0199524134528328</v>
+        <v>0.01995241345648966</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009478266204594628</v>
+        <v>0.0009478266211988539</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3013398584963611</v>
+        <v>0.3013398584717495</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006253334783626587</v>
+        <v>0.006253334782057391</v>
       </c>
       <c r="K4" t="n">
-        <v>9.672994695968091e-06</v>
+        <v>9.672994695968047e-06</v>
       </c>
     </row>
     <row r="5">
@@ -625,22 +625,22 @@
         <v>3714.4775390625</v>
       </c>
       <c r="E5" t="n">
-        <v>222.4005758828412</v>
+        <v>222.4005758854602</v>
       </c>
       <c r="F5" t="n">
-        <v>12.07947982316923</v>
+        <v>12.07947983517713</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05987398592238442</v>
+        <v>0.05987398592308948</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003251999694745222</v>
+        <v>0.003251999697977951</v>
       </c>
       <c r="I5" t="n">
-        <v>0.371268946512434</v>
+        <v>0.3712689465108365</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01327204380921741</v>
+        <v>0.01327204382887523</v>
       </c>
       <c r="K5" t="n">
         <v>0.001147968103713966</v>
@@ -664,25 +664,25 @@
         <v>1195.0927734375</v>
       </c>
       <c r="E6" t="n">
-        <v>27.43610107886913</v>
+        <v>27.43610104988328</v>
       </c>
       <c r="F6" t="n">
-        <v>4.010161788129868</v>
+        <v>4.010161786818514</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0229572981183322</v>
+        <v>0.02295729809407814</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003355523418148749</v>
+        <v>0.003355523417051466</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2624189423096263</v>
+        <v>0.2624189424183417</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01493293500984545</v>
+        <v>0.01493293503522524</v>
       </c>
       <c r="K6" t="n">
-        <v>7.62923129787918e-06</v>
+        <v>7.629231297879278e-06</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +703,25 @@
         <v>1566.54052734375</v>
       </c>
       <c r="E7" t="n">
-        <v>36.97084514371407</v>
+        <v>36.97084516969239</v>
       </c>
       <c r="F7" t="n">
-        <v>3.834810245903882</v>
+        <v>3.83481023111703</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02360031196026725</v>
+        <v>0.02360031197685049</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002447948316030001</v>
+        <v>0.002447948306590825</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2953544375933191</v>
+        <v>0.2953544374953112</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01407887936809964</v>
+        <v>0.01407887928551096</v>
       </c>
       <c r="K7" t="n">
-        <v>1.322103476976564e-05</v>
+        <v>1.32210347697656e-05</v>
       </c>
     </row>
     <row r="8">
@@ -742,25 +742,25 @@
         <v>3176.1474609375</v>
       </c>
       <c r="E8" t="n">
-        <v>57.40925437725171</v>
+        <v>57.40925438091289</v>
       </c>
       <c r="F8" t="n">
-        <v>0.660291245516031</v>
+        <v>0.6602912464241145</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01807512248197263</v>
+        <v>0.01807512248312535</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002078906139078107</v>
+        <v>0.0002078906141937179</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5888910541131877</v>
+        <v>0.5888910540843612</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004664606325403151</v>
+        <v>0.004664606332503881</v>
       </c>
       <c r="K8" t="n">
-        <v>2.734076892281615e-05</v>
+        <v>2.734076892281609e-05</v>
       </c>
     </row>
     <row r="9">
@@ -781,25 +781,25 @@
         <v>3875.9765625</v>
       </c>
       <c r="E9" t="n">
-        <v>84.57490880785343</v>
+        <v>84.57490880667689</v>
       </c>
       <c r="F9" t="n">
-        <v>2.079065187992918</v>
+        <v>2.079065190951315</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02182028385468428</v>
+        <v>0.02182028385438073</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0005363977708502766</v>
+        <v>0.0005363977716135416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3034549982791336</v>
+        <v>0.3034549982814154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003327306701015805</v>
+        <v>0.00332730670617085</v>
       </c>
       <c r="K9" t="n">
-        <v>2.167409276609539e-06</v>
+        <v>2.16740927660951e-06</v>
       </c>
     </row>
     <row r="10">
@@ -820,25 +820,25 @@
         <v>1108.9599609375</v>
       </c>
       <c r="E10" t="n">
-        <v>26.00993065397483</v>
+        <v>26.0099306471735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9928986744596376</v>
+        <v>0.992898674866726</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02345434602705257</v>
+        <v>0.0234543460209195</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008953422210304638</v>
+        <v>0.0008953422213975541</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4440465698147467</v>
+        <v>0.4440465698995523</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01159328741980146</v>
+        <v>0.01159328742946147</v>
       </c>
       <c r="K10" t="n">
-        <v>7.657917237559568e-05</v>
+        <v>7.657917237559573e-05</v>
       </c>
     </row>
     <row r="11">
@@ -898,7 +898,7 @@
         <v>2266.36962890625</v>
       </c>
       <c r="E12" t="n">
-        <v>89.30963265232198</v>
+        <v>89.3096326523215</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.03940647258647867</v>
+        <v>0.03940647258647846</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.1878595153034842</v>
+        <v>0.1878595153034844</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>8.873379653797574e-23</v>
+        <v>8.873406994029434e-23</v>
       </c>
     </row>
     <row r="13">
@@ -943,25 +943,25 @@
         <v>3133.0810546875</v>
       </c>
       <c r="E13" t="n">
-        <v>62.30432097363611</v>
+        <v>62.30432096530313</v>
       </c>
       <c r="F13" t="n">
-        <v>1.386603280486845</v>
+        <v>1.386603278674715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01988595886481158</v>
+        <v>0.0198859588621519</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0004425685950295812</v>
+        <v>0.000442568594451195</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5243723539745592</v>
+        <v>0.5243723540258309</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007415340424467541</v>
+        <v>0.007415340412545063</v>
       </c>
       <c r="K13" t="n">
-        <v>7.356128823072029e-05</v>
+        <v>7.356128823071991e-05</v>
       </c>
     </row>
     <row r="14">
@@ -982,25 +982,25 @@
         <v>1103.57666015625</v>
       </c>
       <c r="E14" t="n">
-        <v>27.83503897271507</v>
+        <v>27.83503896660242</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7597116678445738</v>
+        <v>0.7597116676499085</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02522256946678634</v>
+        <v>0.02522256946124739</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006884086038363751</v>
+        <v>0.0006884086036599801</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5033325013369018</v>
+        <v>0.5033325014206578</v>
       </c>
       <c r="J14" t="n">
-        <v>0.009410822290552975</v>
+        <v>0.009410822295141839</v>
       </c>
       <c r="K14" t="n">
-        <v>9.58340175135374e-05</v>
+        <v>9.583401751353762e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1021,25 +1021,25 @@
         <v>2287.90283203125</v>
       </c>
       <c r="E15" t="n">
-        <v>39.60188773912166</v>
+        <v>39.60188773778272</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6879850890663027</v>
+        <v>0.6879850877884026</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0173092524667939</v>
+        <v>0.01730925246620867</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0003007055542020089</v>
+        <v>0.0003007055536434624</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4371690286204659</v>
+        <v>0.4371690286296831</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004837733935661108</v>
+        <v>0.004837733920521682</v>
       </c>
       <c r="K15" t="n">
-        <v>1.317178759960225e-05</v>
+        <v>1.317178759960221e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1060,25 +1060,25 @@
         <v>2836.99951171875</v>
       </c>
       <c r="E16" t="n">
-        <v>86.94548174002203</v>
+        <v>86.94548173779738</v>
       </c>
       <c r="F16" t="n">
-        <v>1.683292140437352</v>
+        <v>1.68329213518111</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03064698509142412</v>
+        <v>0.03064698509063996</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0005933353648755323</v>
+        <v>0.0005933353630227856</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2269527639540227</v>
+        <v>0.2269527639557962</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001285094250255782</v>
+        <v>0.001285094246745482</v>
       </c>
       <c r="K16" t="n">
-        <v>2.280114868377679e-07</v>
+        <v>2.280114868377598e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1099,25 +1099,25 @@
         <v>3159.99755859375</v>
       </c>
       <c r="E17" t="n">
-        <v>48.15496539776134</v>
+        <v>48.15496541133616</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8076222466178334</v>
+        <v>0.8076222453577655</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01523892487410373</v>
+        <v>0.01523892487839956</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000255576857779991</v>
+        <v>0.0002555768573812349</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4669659398383316</v>
+        <v>0.4669659397531879</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004443241846093619</v>
+        <v>0.004443241833059256</v>
       </c>
       <c r="K17" t="n">
-        <v>1.676761731449654e-05</v>
+        <v>1.676761731449648e-05</v>
       </c>
     </row>
   </sheetData>
